--- a/Shading Trees/Charts/Energy Change by Activities.xlsx
+++ b/Shading Trees/Charts/Energy Change by Activities.xlsx
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.008713500661542639</v>
+        <v>-46.63591686726431</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -486,7 +486,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-1.512245677304236e-05</v>
+        <v>-0.08093757796183354</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>5.201199582138827e-09</v>
+        <v>2.795794920751327e-05</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.397549838193072e-07</v>
+        <v>0.002901338853112279</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0009195681354867702</v>
+        <v>4.941826115461026</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.806622349282861e-05</v>
+        <v>0.1508299285860346</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>-0.0001238203280991002</v>
+        <v>-0.6628334176880344</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.001751897725625895</v>
+        <v>-9.378236803240725</v>
       </c>
       <c r="E5">
-        <v>-0.0004039702289446723</v>
+        <v>-2.162528331144131</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-0.000882330619788263</v>
+        <v>-4.723281139569735</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-1.360169328279426e-06</v>
+        <v>-0.007281241271158478</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,7 +596,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.008453246911813039</v>
+        <v>-45.23583239729487</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-1.467078117656229e-05</v>
+        <v>-0.07850770301670451</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.02285998072329676</v>
+        <v>-122.3768405538212</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.0006977115704103198</v>
+        <v>-3.735074786134192</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>-1.242729801731457e-06</v>
+        <v>-0.006652535451003416</v>
       </c>
       <c r="C8">
-        <v>-0.000304063520161435</v>
+        <v>-1.627611016474475</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.0007700485002715141</v>
+        <v>-4.122085544087895</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1.34032332255174e-06</v>
+        <v>0.007174824431658067</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.0001330754330410855</v>
+        <v>-0.7123601044104362</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-6.171725999593036e-05</v>
+        <v>-0.3303854311901659</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-0.0008691756593179889</v>
+        <v>-4.652951300662608</v>
       </c>
       <c r="E10">
-        <v>-0.0002004232978833898</v>
+        <v>-1.072924482992676</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -742,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.0004551978545350721</v>
+        <v>-2.436277699363927</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-6.748257472821706e-07</v>
+        <v>-0.003612539426587347</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,7 +756,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>-9.853211508925597e-07</v>
+        <v>-0.005273460015359888</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.0007056511531118304</v>
+        <v>-3.775628661343944</v>
       </c>
       <c r="I11">
         <v>0</v>
